--- a/奥陶纪官方旅行社小程序功能列表.xlsx
+++ b/奥陶纪官方旅行社小程序功能列表.xlsx
@@ -423,10 +423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -464,22 +464,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -494,8 +478,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,11 +516,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,7 +594,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,37 +602,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,121 +623,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,60 +804,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,22 +869,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,6 +895,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,38 +932,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,8 +941,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,10 +974,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,19 +986,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,116 +1007,116 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1141,12 +1141,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1157,19 +1163,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1493,19 +1508,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1591,26 +1606,26 @@
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="37.5" spans="1:5">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -1620,80 +1635,81 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
+    <row r="11" ht="37.5" spans="1:5">
+      <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" ht="37.5" spans="1:5">
+      <c r="A13" s="10"/>
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9"/>
+    <row r="14" ht="37.5" spans="1:5">
+      <c r="A14" s="10"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
+    <row r="15" ht="37.5" spans="1:5">
+      <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="37.5" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+    <row r="16" ht="56.25" spans="1:5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
@@ -1706,7 +1722,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1729,8 +1745,8 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" ht="37.5" spans="1:5">
+      <c r="A20" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1738,12 +1754,12 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" ht="37.5" spans="1:5">
-      <c r="A21" s="14"/>
+    <row r="21" ht="56.25" spans="1:5">
+      <c r="A21" s="16"/>
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
@@ -1758,7 +1774,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
@@ -1771,7 +1787,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -1784,7 +1800,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1795,68 +1811,68 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15" t="s">
+    <row r="26" ht="37.5" spans="1:5">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
+    <row r="27" ht="37.5" spans="1:5">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
+    <row r="28" ht="37.5" spans="1:5">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
+    <row r="29" ht="37.5" spans="1:5">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="16"/>
-      <c r="B30" s="15" t="s">
+    <row r="30" ht="37.5" spans="1:5">
+      <c r="A30" s="18"/>
+      <c r="B30" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1868,448 +1884,436 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>6</v>
+      <c r="A34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" ht="37.5" spans="1:5">
+      <c r="A35" s="9"/>
+      <c r="B35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" ht="37.5" spans="1:5">
-      <c r="A37" s="8"/>
+    <row r="37" ht="93.75" spans="1:5">
+      <c r="A37" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="B37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="E37" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" ht="93.75" spans="1:5">
-      <c r="A39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="D38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="E39" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="10"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" ht="37.5" spans="1:5">
+      <c r="A40" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="B40" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" ht="56.25" spans="1:5">
+      <c r="A41" s="10"/>
+      <c r="B41" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="E41" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" ht="56.25" spans="1:5">
+      <c r="A42" s="12"/>
       <c r="B42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" ht="37.5" spans="1:5">
-      <c r="A43" s="9"/>
-      <c r="B43" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="E42" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" ht="56.25" spans="1:5">
-      <c r="A44" s="10"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" ht="37.5" spans="1:5">
+      <c r="A44" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="B44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" ht="93.75" spans="1:5">
+      <c r="A45" s="10"/>
+      <c r="B45" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E45" s="5"/>
     </row>
     <row r="46" ht="37.5" spans="1:5">
-      <c r="A46" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="A46" s="10"/>
       <c r="B46" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" ht="93.75" spans="1:5">
-      <c r="A47" s="9"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="12"/>
       <c r="B47" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" ht="37.5" spans="1:5">
-      <c r="A48" s="9"/>
-      <c r="B48" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="10"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" ht="37.5" spans="1:5">
+      <c r="A49" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="B49" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="E49" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="5"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" ht="37.5" spans="1:5">
-      <c r="A51" s="12" t="s">
-        <v>90</v>
+    <row r="51" ht="56.25" spans="1:5">
+      <c r="A51" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6" t="s">
-        <v>92</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="5"/>
       <c r="E51" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="12"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" ht="56.25" spans="1:5">
-      <c r="A53" s="12" t="s">
-        <v>94</v>
+    <row r="53" ht="37.5" spans="1:5">
+      <c r="A53" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" ht="75" spans="1:5">
+      <c r="A54" s="21"/>
+      <c r="B54" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="55" ht="37.5" spans="1:5">
-      <c r="A55" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A55" s="21"/>
       <c r="B55" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" ht="75" spans="1:5">
-      <c r="A56" s="9"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" ht="37.5" spans="1:5">
+      <c r="A56" s="22"/>
       <c r="B56" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" ht="37.5" spans="1:5">
-      <c r="A57" s="9"/>
-      <c r="B57" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="12"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" ht="37.5" spans="1:5">
-      <c r="A58" s="10"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" ht="75" spans="1:5">
+      <c r="A58" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="B58" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="10"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" ht="75" spans="1:5">
-      <c r="A60" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="E59" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="12"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="10"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="10"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" ht="56.25" spans="1:5">
+      <c r="A62" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" ht="56.25" spans="1:5">
       <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" ht="56.25" spans="1:5">
-      <c r="A64" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="E63" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" ht="37.5" spans="1:5">
+      <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D64" s="5"/>
-      <c r="E64" s="6" t="s">
-        <v>116</v>
+      <c r="E64" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="65" ht="37.5" spans="1:5">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D65" s="5"/>
-      <c r="E65" s="6" t="s">
-        <v>119</v>
+      <c r="E65" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="66" ht="37.5" spans="1:5">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" ht="37.5" spans="1:5">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D67" s="5"/>
-      <c r="E67" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" ht="37.5" spans="1:5">
+      <c r="E67" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" ht="131.25" spans="1:5">
       <c r="A68" s="5"/>
-      <c r="B68" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="B68" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" ht="75" spans="1:5">
-      <c r="A70" s="5"/>
-      <c r="B70" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A53:A56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/奥陶纪官方旅行社小程序功能列表.xlsx
+++ b/奥陶纪官方旅行社小程序功能列表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="6615" windowHeight="5895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1510,8 +1511,8 @@
   <sheetPr/>
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
@@ -2316,4 +2317,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:S34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>